--- a/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
+++ b/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Carroponte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75330335-3EDA-43DE-969F-EE1BC92F2483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3EB4D-CE8A-4B5F-B435-6B4549E9813D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>M_max</t>
-  </si>
-  <si>
     <t>sp</t>
   </si>
   <si>
@@ -59,13 +56,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>R_B</t>
-  </si>
-  <si>
     <t>Fp</t>
-  </si>
-  <si>
-    <t>R_A</t>
   </si>
   <si>
     <t>daN*mm</t>
@@ -242,9 +233,6 @@
     <t>diametro ruote carrello</t>
   </si>
   <si>
-    <t>spasso ruote testata sc</t>
-  </si>
-  <si>
     <t>[mm]</t>
   </si>
   <si>
@@ -359,9 +347,6 @@
     <t xml:space="preserve">d </t>
   </si>
   <si>
-    <t>sb</t>
-  </si>
-  <si>
     <t>scartamento del ponte</t>
   </si>
   <si>
@@ -393,9 +378,6 @@
     </r>
   </si>
   <si>
-    <t>tau max</t>
-  </si>
-  <si>
     <t>Sollecitazione a flessione in mezzeria</t>
   </si>
   <si>
@@ -560,15 +542,102 @@
     <t>Confronto</t>
   </si>
   <si>
-    <t>Scarto</t>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <t>spasso ruote testata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -806,14 +875,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,35 +891,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,9 +903,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -880,9 +916,30 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,67 +952,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1016,14 +1047,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>20343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1047,7 +1078,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3352801" y="6068718"/>
+          <a:off x="3438526" y="5963943"/>
           <a:ext cx="5257800" cy="1684632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1059,16 +1090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>56932</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133113</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,7 +1122,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3400425" y="4105057"/>
+          <a:off x="3505200" y="3943132"/>
           <a:ext cx="5457825" cy="1066781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1112,10 +1143,10 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>325431</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>168240</xdr:rowOff>
+      <xdr:rowOff>149190</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Input penna 20">
@@ -1134,7 +1165,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Input penna 20">
@@ -1169,18 +1200,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>380391</xdr:colOff>
+      <xdr:colOff>266091</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>145808</xdr:rowOff>
+      <xdr:rowOff>117233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82791</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>578091</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>189968</xdr:rowOff>
+      <xdr:rowOff>161393</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Input penna 38">
@@ -1194,12 +1225,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="3825720" y="8315537"/>
+            <a:off x="3771291" y="8365883"/>
             <a:ext cx="921600" cy="425160"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Input penna 38">
@@ -1258,10 +1289,10 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1659 413 2979,'2'-2'10495,"-2"-9"-6656,-3-18-4885,2 17 2091,-2-31-929,5-82 0,0 104-307,1 0 0,1 1 1,1-1-1,0 1 0,18-38 1,-78 106-476,48-42 653,-1 0 0,0-1-1,-1 0 1,1 0 0,-1-1 0,0 0-1,0 0 1,0-1 0,0 0-1,-12 1 1,17-3-85,0-1 1,0 0-1,0 1 1,0-2-1,0 1 0,1 0 1,-1-1-1,0 1 0,0-1 1,0 0-1,1-1 1,-5-1-1,6 2-25,0-1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0 0-1,1-5 0,-1-3-890,0-26-931,0 35 1872,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,-1 1 1,1 0-1,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,-1-1 0,1 2 119,1 0 1,-1 0 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,-1 0-1,1 0 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,0 0 0,0 1 0,0-1-1,1 1 1,-4 23 476,3-22-369,-35 340 6929,35-336-7186,-1 2-1515</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2317.01">399 346 6342,'-6'-3'1146,"0"0"1,0 1-1,-1 0 0,1 0 0,0 0 1,-8 0-1,-42 0 1474,22 6-2958,-46 12-1,47-9 947,26-6-576,0 0 0,0 1 0,0 0 0,0 0 0,1 0 1,-1 1-1,1 0 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,0 0 0,0 0 0,1 15 0,0-21-51,1 1 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 1-1,3 1 1,1 0-21,-1-1-1,1 1 0,0-1 0,0 0 1,0 0-1,1-1 0,5 2 1,10 1 5,-1-2 1,36 0 0,-55-2 39,13 0-24,5 1 70,1-2 0,-1 0 1,0-1-1,32-7 1,-47 8-39,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,0-4 0,0 4 11,0-1-1,-1 1 0,1 0 1,-1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 1 1,0-1-1,1 1 0,-1 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 1,0 1-1,1 0 1,-1 1-1,-6-3 0,0 1 29,1 0 0,-1 1-1,0 0 1,-1 0 0,1 1-1,0 1 1,0 0 0,0 0-1,-1 1 1,-18 4 0,22-3-50,1 0 1,-1 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,0 0 0,-8 8 1,-10 9-4257,22-19 3500</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2317.02">399 346 6342,'-6'-3'1146,"0"0"1,0 1-1,-1 0 0,1 0 0,0 0 1,-8 0-1,-42 0 1474,22 6-2958,-46 12-1,47-9 947,26-6-576,0 0 0,0 1 0,0 0 0,0 0 0,1 0 1,-1 1-1,1 0 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,0-1 0,1 1 0,0 0 0,0 0 0,1 15 0,0-21-51,1 1 0,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0 0,1-1-1,0 1 1,0 0 0,-1 0 0,1-1-1,0 1 1,0-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,1 0 0,-1 1-1,3 1 1,1 0-21,-1-1-1,1 1 0,0-1 0,0 0 1,0 0-1,1-1 0,5 2 1,10 1 5,-1-2 1,36 0 0,-55-2 39,13 0-24,5 1 70,1-2 0,-1 0 1,0-1-1,32-7 1,-47 8-39,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,-1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,-1-1 0,1 1-1,-1-1 1,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,0-4 0,0 4 11,0-1-1,-1 1 0,1 0 1,-1 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,0-1 1,0 0-1,-1 1 1,0-1-1,1 1 0,-1 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 1,0 1-1,1 0 1,-1 1-1,-6-3 0,0 1 29,1 0 0,-1 1-1,0 0 1,-1 0 0,1 1-1,0 1 1,0 0 0,0 0-1,-1 1 1,-18 4 0,22-3-50,1 0 1,-1 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,0 0 0,-8 8 1,-10 9-4257,22-19 3500</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1366.99">880 351 7591,'18'13'4869,"-12"-8"-1634,-16-5-2274,-14 0-64,-8 0-641,-1 0-192,1 0-64,3 0-128,7 0-545,2 0-1377,11 3-1857,1-1-1122</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-982">878 458 4644,'0'5'6310,"-6"0"-4868,-18-3-1250,-7-2 737,-1 0-641,1 0-288,1 0-641,6-3-1152,9 1-2179,5 2-2178</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8015.47">1826 536 1185,'6'0'520,"22"-1"2374,-27 1-2629,0 0 0,-1 0 0,1 0 0,0 0 0,13 10 11801,-196 2-8888,1 0-3382,82-17-210,1 0-5151</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8015.46">1826 536 1185,'6'0'520,"22"-1"2374,-27 1-2629,0 0 0,-1 0 0,1 0 0,0 0 0,13 10 11801,-196 2-8888,1 0-3382,82-17-210,1 0-5151</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11134.58">1738 907 6054,'-20'13'7765,"-15"30"-5031,-17 36-2818,18-15 335,20-36-13,-26 39-1,31-59-392,5-15 111,4-21 53,1 22-43,1-161-772,-2 167 779,-12 4-102,11-4 122,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,1-1 0,-1 1 1,0-1-1,0 1 0,1 0 0,-1-1 0,0 1 1,1 0-1,-2 1 0,-15 21 135,2 1-1,-19 36 1,29-50-72,0 0 0,1 0 0,0 1 0,0-1-1,1 1 1,-3 17 0,9-98 311,-1 44-307,-1 0 0,-1 0 0,-2 0 0,-6-36 0,8 61-57,0-1 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 1,1-1-1,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,-4 0 1,-6 1 25,0 1 1,0 0-1,0 0 1,-16 6 0,-25 4-956,71-10-11880</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11504.58">1811 894 5797,'6'0'6663,"-8"0"-5158,-24 0-160,-6 0-255,-1 2-578,-1 3-288,11 1-32,-1-3 33,6-1-129,8-2-64,3 0-96</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11889.58">1750 1196 9321,'18'-4'5871,"-1"-5"-3938,-15 7-1856,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,5 0 0,-6 1-27,0 0 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 1,2 3-1,-1 1-40,0 0 1,0 1 0,0-1-1,-1 1 1,4 10-1,-3-9-2,17 29 0,-3-25-2673,-17-11 2373,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 0 0,0 1 0,1-2 0,7-15-3936</inkml:trace>
@@ -1612,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5B5F4-5670-417E-B5E4-D8B1C648A572}">
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,526 +1659,526 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="22"/>
+      <c r="B3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
         <v>3000</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
         <v>8730</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="50">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="55">
         <v>100</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="2">
         <v>2100</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
         <f>SUM(C5:C6)</f>
         <v>3100</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
         <v>200</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="D9" s="9"/>
+      <c r="E9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
         <v>800</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9">
         <f>SUM(C9:C10)</f>
         <v>1000</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="26" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="17">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="17">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>600</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="2"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>250</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>120</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="28">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="28">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11">
-        <v>600</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="4"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11">
-        <v>250</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="28">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="11">
-        <v>120</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="F15" s="17">
         <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="11">
+      <c r="B16" s="1"/>
+      <c r="C16" s="9">
         <f>SUM(C13:C15)</f>
         <v>970</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9">
         <v>2.5</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="2"/>
+      <c r="B25" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>106</v>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="40"/>
-      <c r="I26" s="51"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9800</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="9">
+        <v>653</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="9">
+        <v>451</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="11">
-        <v>9800</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="C31" s="9">
+        <v>72.2</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="11">
-        <v>653</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="C32" s="9">
+        <v>2.56</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="11">
-        <v>11.9</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="11">
-        <v>451</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="11">
-        <v>72.2</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2.56</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="9">
+        <v>69</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="11">
-        <v>69</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="4" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="B35" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="16">
         <v>300</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="28" t="s">
-        <v>77</v>
+      <c r="D35" s="9"/>
+      <c r="E35" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="26">
+      <c r="B36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="16">
         <v>125</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="28" t="s">
-        <v>77</v>
+      <c r="D36" s="9"/>
+      <c r="E36" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="26">
+      <c r="B37" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="16">
         <v>16.2</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="28" t="s">
-        <v>77</v>
+      <c r="D37" s="9"/>
+      <c r="E37" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B38" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="9">
         <v>10.8</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="28" t="s">
-        <v>77</v>
+      <c r="D38" s="9"/>
+      <c r="E38" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="B39" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="18">
         <v>241.6</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="18" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B44" s="10"/>
+      <c r="C44" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="10"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="20">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="19">
+        <f>E44*1.125</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="42"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="20">
+        <f>E45*1.125</f>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="10"/>
+      <c r="C48" s="26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="31">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="E48" s="19">
+        <f>E44*1.25</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="12"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="30">
-        <f>E45*1.125</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="31">
-        <f>E46*1.125</f>
-        <v>10.35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B49" s="12"/>
-      <c r="C49" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="30">
+      <c r="E49" s="21">
         <f>E45*1.25</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="16"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="32">
-        <f>E46*1.25</f>
         <v>11.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B43:E43"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -2162,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C78365-5A36-409D-BD2C-D173369840BA}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,196 +2204,196 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>0.6</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9">
         <f>Dati!C7</f>
         <v>3100</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9">
         <f>Dati!C11</f>
         <v>1000</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>65</v>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9">
         <f>Dati!C16</f>
         <v>970</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
         <f>Dati!F5</f>
         <v>8730</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
         <f>Dati!F9</f>
         <v>800</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
         <f>D4*(D6+D7*D5)/4</f>
         <v>1141.25</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>65</v>
+      <c r="E15" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="9">
         <f>(D10-D11/2)/2</f>
         <v>4165</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>77</v>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9">
         <f>1/D10*(D15*D16+D8*D10/2+D15*(D16+D11))</f>
         <v>1678.540950744559</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="29">
+      <c r="D19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="18">
         <f>(2*D15+D8)-C19</f>
         <v>1573.959049255441</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="7"/>
+      <c r="D20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2374,432 +2405,432 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9A8AE-8251-4649-A49B-9AFD42A1CDF4}">
-  <dimension ref="B1:I48"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
         <f>'Reazioni vincolari'!D15</f>
         <v>1141.25</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <f>Dati!F5</f>
         <v>8730</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
         <f>Dati!F9</f>
         <v>800</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
         <f>Dati!C16</f>
         <v>970</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="9">
         <v>21000</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="29">
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18">
         <f>Dati!C27*10000</f>
         <v>98000000</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>101</v>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B10" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="9">
         <f>C3/(2*C4)*(C4-C5/2)^2 + 1/8*C6*C4</f>
         <v>5594026.9401489124</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="9">
         <f>Dati!C28*1000</f>
         <v>653000</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="D12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4"/>
-      <c r="I13" s="37"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B14" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="33">
+      <c r="B14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="22">
         <f>C11/C12</f>
         <v>8.5666568761851636</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="36">
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="24">
         <f>C14/3^0.5</f>
         <v>4.945961653520663</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="D15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="33">
-        <f>Dati!E45</f>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="22">
+        <f>Dati!E44</f>
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="9">
         <v>35</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="9">
         <f>(Dati!C35-Dati!C39)/2</f>
         <v>29.200000000000003</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>77</v>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="9">
         <f>Dati!C38</f>
         <v>10.8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>77</v>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="9">
+        <f>TRUNC(Dati!F15/100)*100/4</f>
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>77</v>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B25" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="22">
         <f>C3/(C23+2*(C20+C21)*C22)</f>
         <v>0.79434406147335579</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="46">
-        <f>ABS(C25-1.15*Dati!E45)/C25</f>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="51">
+        <f>ABS(C25-1.15*Dati!E44)/C25</f>
         <v>22.163766046002195</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="D27" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="9">
         <f>IF(C33&lt;C5,C33,C5)</f>
         <v>241.6</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>77</v>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9">
         <v>1.5</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="9">
         <f>Dati!C39</f>
         <v>241.6</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>77</v>
+      <c r="D33" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="11">
+      <c r="B34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="9">
         <f>Dati!C38</f>
         <v>10.8</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>77</v>
+      <c r="D34" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="49">
         <f>C3/(C31*C34)</f>
         <v>0.43738119327937203</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="22">
         <f>230000/C32*(1+2*(C33/C4)^2)*(C34/C33)^2</f>
         <v>306.87037291032152</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="47">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="53">
         <f>ABS(C37-C36)/C36</f>
         <v>700.60852278417872</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+    </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C42" s="9">
         <f>Dati!C5*1.1</f>
         <v>3300.0000000000005</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>65</v>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="22">
+        <f>C42/4*(C4-C5)*(3*C4^2-(C4-C5)^2)/(48*C7*C8)</f>
+        <v>10.977514557519438</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="33">
-        <f>C43/4*(C4-C5)*(3*C4^2-(C4-C5)^2)/(48*C7*C8)</f>
-        <v>10.977514557519438</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="49">
+        <f>C43/C4</f>
+        <v>1.2574472574478164E-3</v>
+      </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="11">
-        <f>C44/C4</f>
-        <v>1.2574472574478164E-3</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="49">
+      <c r="B45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="32">
         <f>1/750</f>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="54">
+        <f>ABS(C44-C45)/C44</f>
+        <v>6.034931122243601E-2</v>
+      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="48">
-        <f>ABS(C45-C46)/C45</f>
-        <v>6.034931122243601E-2</v>
-      </c>
-      <c r="D48" s="7"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2807,9 +2838,9 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C$25&gt;$C$19*1.15</formula>
     </cfRule>
@@ -2825,15 +2856,16 @@
       <formula>$C$36&lt;$C$37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
+  <conditionalFormatting sqref="C46">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C$45&gt;$C$46</formula>
+      <formula>$C$44&gt;$C$45</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$C$45&lt;$C$46</formula>
+      <formula>$C$44&lt;$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
+++ b/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Carroponte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D3EB4D-CE8A-4B5F-B435-6B4549E9813D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A9854-FCB3-48B5-8222-AA6F6C2D70D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>P</t>
   </si>
@@ -630,6 +630,24 @@
   <si>
     <t>spasso ruote testata</t>
   </si>
+  <si>
+    <t>Verifica svergolamento</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h L / (b t1 ) </t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: nella verifica è indicato lo scarto percentuale tra le quantità. </t>
+  </si>
 </sst>
 </file>
 
@@ -639,7 +657,7 @@
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +749,14 @@
       <u/>
       <sz val="8"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,7 +901,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -931,48 +957,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
@@ -980,13 +964,198 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1262,6 +1431,71 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595054</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>413755</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>87337</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="Input penna 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636839C5-D2C9-47E9-9CB1-277B6D853719}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4106880" y="9889456"/>
+            <a:ext cx="1657440" cy="609120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="Input penna 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636839C5-D2C9-47E9-9CB1-277B6D853719}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4098240" y="9880456"/>
+              <a:ext cx="1675080" cy="626760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1343,6 +1577,53 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6711.09">1927 968 3331,'0'0'6310,"-13"0"-3940,-23 0 225,-5 0-1186,-5 0-416,1 0-384,2 0-449,3 0-160,9 2 0,5-1-160,8 1-769,8-2-1185</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7324.1">2235 847 12172,'-3'-1'243,"1"0"0,-1 1 0,0-1 1,0 0-1,0 1 0,1 0 1,-1-1-1,0 1 0,0 1 1,-5 0-1,2-1 81,-122 0 818,125 1-1134,1-1 1,0 1-1,0 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,0-1 0,1 0 1,-1 1-1,0 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 1 0,0 2 1,-2 5-733,1 1 1,0-1-1,1 1 0,-1 14 1,19-22-3258,19-6 3072,15-20 386,-45 20 588,0-1 0,0 1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 1 1,10-1-1,-15 4 8,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 3 0,1 0 240,0 4 215,0 0-1,0-1 1,-1 1-1,0 0 1,0-1-1,-4 13 1,3-17-403,0-1 0,0 0-1,0 1 1,0-1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,0 0-1,-1 0 1,1-1 0,-7 3 0,-6 2-92,1 0 1,0-1 0,-1-1 0,0-1 0,0 0 0,0-1-1,0-1 1,-17 0 0,32-2-169,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,-1-1 0,1 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1-1 0,-1-1-882,2-14-2922</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7740.09">2365 886 9129,'-2'-1'342,"0"1"1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 1-1,0-1 1,-1 1 0,-1 0-1,-1 1-250,0 0 0,0 0 0,0 0 0,0 1 0,1-1-1,-1 1 1,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1 1 0,1-1-1,0 0 1,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0-1,3 11 1,-1-14-98,0 1-1,0 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0-1 0,-1 0 1,1 1-1,0-1 1,0 0-1,0 0 0,0 0 1,1-1-1,-1 1 0,3-1 1,74 5-345,-73-5 319,4 0 4,1 0 1,0-1-1,-1 0 0,1-1 1,-1-1-1,0 0 0,0 0 1,14-7-1,-22 8 24,1 1 1,-1-1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,1 0-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1-1 1,1 1-1,-1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,-1 0-1,0 1 0,0-1 1,0 0-1,0 1 0,-1-1 1,0-4-1,-1 3 47,1 0 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,-1 0 1,0-1-1,0 1 0,0 0 0,-1 0 0,0 1 1,1-1-1,-1 1 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 1 0,-1 0 0,-9-3 0,1 0 20,0 1 0,-1 1-1,1 0 1,-1 1 0,0 0 0,0 1-1,-15 1 1,23 0-107,-1 1 0,0-1 1,0 2-1,1-1 0,-1 1 0,1 0 0,-1 0 1,-11 6-1,-23 24-3139,15-5-2764</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-02-13T10:30:45.261"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">511 697 8456,'0'-1'512,"0"-1"0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1-2 0,-24-1 2119,14 3-2610,-35-1 503,-78 6-1,107-2-507,1 0-1,1 2 0,-1 0 0,1 1 1,-1 0-1,1 2 0,-30 16 0,32-15-18,-1 1-158,0 0 0,1 1 0,-20 17 0,31-24 115,-1 1 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0 0 0,1-1 0,0 1 0,0 0 1,0 0-1,0 0 0,1 5 0,0-7 2,0 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 1 0,1-1 0,-1-1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,5 0 0,14 5-118,0-2 1,1-1-1,36 1 1,-47-3 190,179 1-339,-185-2 303,-1-1-1,0 1 1,0-1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0-1 1,-1 1-1,1-1 1,-1 1-1,0-1 1,0-1-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 0 0,-1 0 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 1,0 0-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 1,1-1-1,-1 1 1,-1 0-1,1 0 0,-1 0 1,0 0-1,-2-8 1,2 10 17,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,-6-1 0,-10-2 124,-1 0 0,-35 0 0,34 3-84,-166-7-141,185 8 15,0 0 0,1 0-1,-1 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 0-1,-1 1 1,1-1-1,0 0 1,0 1 0,-3 2-1,-2 15-8094</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1048.78">1210 627 7079,'0'0'3939,"-18"0"450,-12 8-3685,-3-3 738,-6-2-514,0 5-511,3-5-129,0-3-320,3 3-224,9-3-385,3 0-480,12 2-352,0-2-1090</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1381.83">1141 800 4036,'0'5'4004,"0"1"-2915,-21-1 1345,-9-5-1025,-3 0-544,-3 0-384,3 0-289,-3 0-352,6 0-545,6 0-865,6 0-1248,3 0-1474</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2697.15">2026 360 3748,'-25'4'9041,"-4"7"-3823,-32 27-2633,47-26-2738,-1 0 1,2 1-1,0 0 1,0 1 0,-16 24-1,27-35 150,0-1 0,1 0 1,-1 1-1,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1 0 0,0 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,2 4-1,-2-5-65,1 1 1,0-1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,1-1 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,6 0-1,-3 1-62,27 1-347,0 0 0,45-5 0,-71 2 429,0 1-1,1-2 1,-1 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0-1 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 0 0,0-1 0,-1 0 0,1 0-1,4-6 1,-1-13 422,-11 39 656,3-13-1034,-1 1 0,1-1-1,0 1 1,0-1 0,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,1 0 0,0 0-1,-1 0 1,1-1 0,0 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0 0,0 0-1,1 1 1,-1-1 0,0-1-1,1 1 1,-1 0 0,1-1-1,2 1 1,13 4-65,0-2 1,27 2-1,-41-4 60,16 1-31,-4 0 72,0 0-1,0-2 0,1 0 0,-1 0 1,17-4-1,-30 4-20,0-1 0,0 1 1,0-1-1,0 0 0,-1 0 0,1 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 0 1,-1 0-1,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,-1 0 0,1 1 1,-1-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 0 0,1 0 1,-2-6-1,1 3-19,-1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,-1 1 1,-1 0 0,1 0-1,0 0 1,-1 0-1,0 1 1,0 0-1,-1-1 1,1 2-1,-1-1 1,0 0 0,0 1-1,0 0 1,0 0-1,-1 0 1,1 1-1,-1 0 1,-7-2 0,11 4-334</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3029.19">2602 530 7047,'21'8'1857,"-18"3"866,0-3-673,-3-6-352,0 6-609,3 3-801,-3 8-320,0 3 96,0-1-32,0-7-96,0-1-160,0-5-1730,0-2-1762</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3749.1">3278 481 5509,'0'21'9549,"2"-48"-3620,0-5-6347,3-1 250,2 0 1,1 1-1,2 0 1,1 1-1,1 0 0,2 0 1,23-36-1,-26 46-45,-4 7 73,0 0-1,9-28 1,-15 40-26,-5 3-58,-75 33 434,58-23-216,0-1 1,-1-1-1,0-1 1,0-1-1,-1-1 1,0-1-1,0-2 1,-28 3-1,45-6-94,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1-1 1,-1 1-1,-7-4 0,10 3-10,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 0,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 0,1-1 1,0 0-1,0 0 0,0-3 1,0-85-1311,0 89 2578,0 7-1030,1-1 1,0 1-1,-1-1 0,0 0 0,0 1 1,0-1-1,-1 1 0,0-1 0,1 0 1,-1 1-1,-2 3 0,0 5 100,-8 46 146,4-18-318,-1-1 1,-2 1 0,-1-2-1,-29 64 1,31-88-2287,4-10-905</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4377.51">3578 557 3619,'3'-15'9789,"5"-4"-5038,1 3-4769,0 1 1,0 0-1,2 0 1,-1 1 0,15-14-1,-32 33-26,-1 0-1,0-1 0,0 0 1,-1 0-1,1-1 0,-1 0 0,0-1 1,1 0-1,-1 0 0,0-1 1,0 0-1,0-1 0,-1 1 0,1-2 1,-14-1-1,22 1 28,0 1 0,0-1 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 1,1 1-1,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0-1 0,1-4-503,-2 19 493,0-5 127,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 0-1,0 1 1,0-1 0,-6 7 0,-24 27-1099,-1-7-5475</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4725.38">3851 565 3972,'7'3'1931,"-1"0"1,1 1 0,0 0-1,-1 0 1,9 7 864,-15-21-2977,1-15 385,0 17-164,0 1 1,0-1-1,-1 0 1,0 1 0,-1-1-1,0 0 1,-3-12-1,1 18-25,0 1-1,-1-1 1,1 1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 1-1,0 0 1,0 0 0,-6 2-1,2-2 33,-2 0-6,0-1 38,1 1 1,0 0-1,0 1 0,0 0 0,0 1 0,-12 3 1,17-4-118,1 1-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 1 0,0-1 0,-1 0 0,1 1 0,1-1 0,-1 1-1,-2 6 1,-11 41-2714,12-17-5434</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5061.39">3851 565 6374,'-3'-22'6598,"-3"22"-5381,-21 0-384,-6 3-577,3 5-191,3-5-98,3 2-223,6 6-160,9-11-481,3 0-320</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5391.95">4166 484 5830,'0'0'2882,"-15"0"33,-9 0-2114,-3 5-609,3 9-128,0-4-64,6 4 0,6 2-160,3 0-1217,6 1-1826,3-1 448,0-5-1633</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5392.95">4166 484 6502,'3'124'1409,"-3"-135"1570,0-5-769,-18 0-1377,-6-3-416,3-3-33,-3 6-256,3 3-128,6-1-160,3 9-1570,3 5-1985,3-3-417</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6195.88">4202 848 4708,'-119'-4'10546,"-65"-13"-7632,-21-2-1912,96 13-558,-525-39 735,40 34-672,366 13-443,-120-4-1340,356 2-3624,34 0-2579,-18 2 1916</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6863.52">2248 1113 6854,'7'-5'10187,"-3"14"-7654,-3 16-2846,-3 15 483,-2 0 1,-19 78 0,12-68-86,-5 57 1,15-101-460,-4 70 749,4-47-7412,2-54 3685,4-13-407</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7210.31">2431 1175 0,'9'-7'3200,"-1"0"-1943,1 0 1,1 0 0,19-10-1,-3 11 5263,-24 59-5858,-2-45-594,0-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,-6 7 1,2-4 16,-1 0 0,0-1 0,0 0 1,-1 0-1,0-1 0,0 0 0,-1-1 0,-12 5 1,-2 0-15,0-2 0,0-1 1,-1-1-1,0-1 1,0-2-1,0 0 0,-41-1 1,63-2-62,-1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-2-8 0,-1-7 20,1 0 0,1 0 0,1 0 0,1-1-1,3-32 1,-1 40-158,1 1 0,0 0 0,1-1 0,0 1 0,1 1 0,0-1-1,1 0 1,0 1 0,1 0 0,1 0 0,-1 1 0,2 0 0,12-15 0,-18 24-8,-1 0 0,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,4 1-1,-5-1-96,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,0 1 1,2 16-4429</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8646.54">3773 1159 7399,'-4'1'993,"1"0"0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-4 4-1,-43 32 857,17-10-1834,-30 36 1,45-43 247,1 0 1,1 1 0,1 1 0,1 0 0,1 1 0,-14 38 0,27-63-271,0 1 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,0 1-1,-6-22 19,6 21-10,-56-212-1496,55 196 1355,1 16 400,-6 14-175,-78 111-60,-6 8 337,91-141-170,1-1 0,-2 0 0,0 0 0,0 1 0,-2-16-1,1-6-19,13-132 237,0-2-340,-14 163-24,1 0 1,-1 0-1,1-1 0,-1 2 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,-46 3 279,39 0-291,1 0 0,0 0 0,0 1 0,-15 9 0,-26 10-17,48-22 723</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9041.96">3890 1097 8328,'29'-1'3602,"-45"0"904,-26 0-998,20 1-4079,19 0 603,-38 0-78,0 1 0,-48 8-1,86-8-729,-3 0-4096</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9474.03">3653 1561 7495,'1'-3'610,"0"0"-1,0 0 1,1 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0 0 0,6-2-1,-8 3-599,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,11 32 98,-5-12-202,-3-14-208,0 0 0,1-1 1,0 1-1,1-1 1,-1 0-1,14 12 0,-16-16-556,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0-1 1,1 1 0,5 1 0,0-2-4123</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9806.58">3887 1567 6662,'0'0'6022,"-18"0"-5189,-9 10-32,-9 9 256,3-2-385,-3-1-384,3-3-256,3-2-64,3 3-384,9-6-961,3 3-1826</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.72">4142 1656 4068,'3'0'8136,"-9"0"-6503,-24 0-800,0 0-641,0 0-192,9 0-256,3 0-353,6 0-544,6 0-1281</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10472.57">4376 1548 8360,'12'0'1633,"-3"0"3941,-6 0-5126,0 0-128,3 0-191,-3 2-193,3 9 64,3 5-65,0 3 1,3-2-32,0-1-288,3 0-225,0-3-640,0 1-577,-6-3-1280,0-3-578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10473.57">4604 1545 7623,'0'0'5798,"-24"0"-4197,-9 0-672,-6 11-320,0 8-193,-3 0-96,6 0-127,6 2-33,3-2-192,9-5-128,6-4-193,6-7-1024,6 3-1826</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1645,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5B5F4-5670-417E-B5E4-D8B1C648A572}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,24 +1940,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1708,7 +1989,7 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="41">
         <v>100</v>
       </c>
       <c r="D6" s="9"/>
@@ -1911,22 +2192,22 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -2081,12 +2362,12 @@
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="55"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -2098,7 +2379,7 @@
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="10"/>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -2110,7 +2391,7 @@
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
-      <c r="C45" s="41"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="11" t="s">
         <v>33</v>
       </c>
@@ -2119,10 +2400,10 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="51" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2134,8 +2415,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="42"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="11" t="s">
         <v>33</v>
       </c>
@@ -2170,15 +2451,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -2204,12 +2485,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2405,10 +2686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9A8AE-8251-4649-A49B-9AFD42A1CDF4}">
-  <dimension ref="B1:I47"/>
+  <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,17 +2698,23 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="17" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="Q2" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="57"/>
+      <c r="S2" s="58"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,8 +2723,11 @@
         <v>1141.25</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2446,8 +2736,11 @@
         <v>8730</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="Q4" s="62"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="64"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2457,7 +2750,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2760,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
@@ -2478,7 +2771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
@@ -2490,16 +2783,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
@@ -2512,7 +2805,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>111</v>
       </c>
@@ -2525,14 +2818,14 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="2"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:9" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
         <v>84</v>
       </c>
@@ -2545,7 +2838,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
@@ -2560,11 +2853,11 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -2651,18 +2944,18 @@
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="37">
         <f>ABS(C25-1.15*Dati!E44)/C25</f>
         <v>22.163766046002195</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="38" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
@@ -2670,11 +2963,11 @@
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -2730,7 +3023,7 @@
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="35">
         <f>C3/(C31*C34)</f>
         <v>0.43738119327937203</v>
       </c>
@@ -2750,9 +3043,9 @@
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="53">
-        <f>ABS(C37-C36)/C36</f>
-        <v>700.60852278417872</v>
+      <c r="C38" s="39">
+        <f>(C37-C36)/C37</f>
+        <v>0.99857470374500057</v>
       </c>
       <c r="D38" s="5"/>
     </row>
@@ -2767,11 +3060,11 @@
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -2801,7 +3094,7 @@
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="35">
         <f>C43/C4</f>
         <v>1.2574472574478164E-3</v>
       </c>
@@ -2821,19 +3114,109 @@
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="54">
-        <f>ABS(C44-C45)/C44</f>
-        <v>6.034931122243601E-2</v>
+      <c r="C46" s="40">
+        <f>(C45-C44)/C45</f>
+        <v>5.6914556914137666E-2</v>
       </c>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="9"/>
     </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1700</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="68">
+        <f>(Dati!C35*C49/(Dati!C36*Dati!C37))</f>
+        <v>251.85185185185185</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="68">
+        <f>C11</f>
+        <v>5594026.9401489124</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="9">
+        <f>C12</f>
+        <v>653000</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="22">
+        <f>C51*C52/(C54*C53)</f>
+        <v>8.5666568761851636</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="40">
+        <f>(C19-C55)/C19</f>
+        <v>0.46458394523842728</v>
+      </c>
+      <c r="D56" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="Q2:S4"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B30:D30"/>
@@ -2841,27 +3224,35 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>$C$25&gt;$C$19*1.15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>$C$25&lt;$C$19*1.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>$C$36&gt;$C$37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$C$36&lt;$C$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C$44&gt;$C$45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$C$44&lt;$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
+++ b/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Carroponte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\Carroponte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A9854-FCB3-48B5-8222-AA6F6C2D70D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8D55B-D3DA-41D4-BC57-463A52D62724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -762,12 +762,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -901,7 +907,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -954,7 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -963,7 +968,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,21 +1012,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1042,22 +1048,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1069,90 +1078,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1444,8 +1369,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>87337</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Input penna 27">
@@ -1464,7 +1389,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Input penna 27">
@@ -1618,7 +1543,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6863.52">2248 1113 6854,'7'-5'10187,"-3"14"-7654,-3 16-2846,-3 15 483,-2 0 1,-19 78 0,12-68-86,-5 57 1,15-101-460,-4 70 749,4-47-7412,2-54 3685,4-13-407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7210.31">2431 1175 0,'9'-7'3200,"-1"0"-1943,1 0 1,1 0 0,19-10-1,-3 11 5263,-24 59-5858,-2-45-594,0-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,-6 7 1,2-4 16,-1 0 0,0-1 0,0 0 1,-1 0-1,0-1 0,0 0 0,-1-1 0,-12 5 1,-2 0-15,0-2 0,0-1 1,-1-1-1,0-1 1,0-2-1,0 0 0,-41-1 1,63-2-62,-1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-2-8 0,-1-7 20,1 0 0,1 0 0,1 0 0,1-1-1,3-32 1,-1 40-158,1 1 0,0 0 0,1-1 0,0 1 0,1 1 0,0-1-1,1 0 1,0 1 0,1 0 0,1 0 0,-1 1 0,2 0 0,12-15 0,-18 24-8,-1 0 0,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,4 1-1,-5-1-96,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,0 1 1,2 16-4429</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8646.54">3773 1159 7399,'-4'1'993,"1"0"0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-4 4-1,-43 32 857,17-10-1834,-30 36 1,45-43 247,1 0 1,1 1 0,1 1 0,1 0 0,1 1 0,-14 38 0,27-63-271,0 1 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,0 1-1,-6-22 19,6 21-10,-56-212-1496,55 196 1355,1 16 400,-6 14-175,-78 111-60,-6 8 337,91-141-170,1-1 0,-2 0 0,0 0 0,0 1 0,-2-16-1,1-6-19,13-132 237,0-2-340,-14 163-24,1 0 1,-1 0-1,1-1 0,-1 2 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,-46 3 279,39 0-291,1 0 0,0 0 0,0 1 0,-15 9 0,-26 10-17,48-22 723</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9041.96">3890 1097 8328,'29'-1'3602,"-45"0"904,-26 0-998,20 1-4079,19 0 603,-38 0-78,0 1 0,-48 8-1,86-8-729,-3 0-4096</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9041.95">3890 1097 8328,'29'-1'3602,"-45"0"904,-26 0-998,20 1-4079,19 0 603,-38 0-78,0 1 0,-48 8-1,86-8-729,-3 0-4096</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9474.03">3653 1561 7495,'1'-3'610,"0"0"-1,0 0 1,1 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0 0 0,6-2-1,-8 3-599,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,11 32 98,-5-12-202,-3-14-208,0 0 0,1-1 1,0 1-1,1-1 1,-1 0-1,14 12 0,-16-16-556,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0-1 1,1 1 0,5 1 0,0-2-4123</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9806.58">3887 1567 6662,'0'0'6022,"-18"0"-5189,-9 10-32,-9 9 256,3-2-385,-3-1-384,3-3-256,3-2-64,3 3-384,9-6-961,3 3-1826</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.72">4142 1656 4068,'3'0'8136,"-9"0"-6503,-24 0-800,0 0-641,0 0-192,9 0-256,3 0-353,6 0-544,6 0-1281</inkml:trace>
@@ -1926,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA5B5F4-5670-417E-B5E4-D8B1C648A572}">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,24 +1865,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1974,14 +1899,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="68">
         <v>3000</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="71">
         <v>8730</v>
       </c>
     </row>
@@ -1989,14 +1914,14 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="69">
         <v>100</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="71">
         <v>2100</v>
       </c>
     </row>
@@ -2009,7 +1934,7 @@
         <v>3100</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2019,7 +1944,7 @@
       <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="71">
         <v>700</v>
       </c>
     </row>
@@ -2027,14 +1952,14 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="68">
         <v>200</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="71">
         <v>800</v>
       </c>
     </row>
@@ -2042,7 +1967,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="68">
         <v>800</v>
       </c>
       <c r="D10" s="9"/>
@@ -2061,7 +1986,7 @@
       <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="71">
         <v>720</v>
       </c>
     </row>
@@ -2072,7 +1997,7 @@
       <c r="E12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="71">
         <v>880</v>
       </c>
     </row>
@@ -2080,7 +2005,7 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="68">
         <v>600</v>
       </c>
       <c r="D13" s="9"/>
@@ -2092,14 +2017,14 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="68">
         <v>250</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="71">
         <v>400</v>
       </c>
     </row>
@@ -2107,14 +2032,14 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="68">
         <v>120</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="71">
         <v>220</v>
       </c>
     </row>
@@ -2139,7 +2064,7 @@
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="68">
         <v>2.5</v>
       </c>
       <c r="D18" s="9"/>
@@ -2150,7 +2075,7 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="68" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9"/>
@@ -2161,7 +2086,7 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="9"/>
@@ -2172,7 +2097,7 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="68">
         <v>0.1</v>
       </c>
       <c r="D21" s="9"/>
@@ -2183,7 +2108,7 @@
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="70" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="18"/>
@@ -2192,29 +2117,29 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="I26" s="34"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="68">
         <v>9800</v>
       </c>
       <c r="D27" s="9"/>
@@ -2226,7 +2151,7 @@
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="68">
         <v>653</v>
       </c>
       <c r="D28" s="9"/>
@@ -2238,7 +2163,7 @@
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="68">
         <v>11.9</v>
       </c>
       <c r="D29" s="9"/>
@@ -2250,7 +2175,7 @@
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="68">
         <v>451</v>
       </c>
       <c r="D30" s="9"/>
@@ -2262,7 +2187,7 @@
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="68">
         <v>72.2</v>
       </c>
       <c r="D31" s="9"/>
@@ -2274,7 +2199,7 @@
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="68">
         <v>2.56</v>
       </c>
       <c r="D32" s="9"/>
@@ -2292,7 +2217,7 @@
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="68">
         <v>69</v>
       </c>
       <c r="D34" s="9"/>
@@ -2304,7 +2229,7 @@
       <c r="B35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="68">
         <v>300</v>
       </c>
       <c r="D35" s="9"/>
@@ -2316,7 +2241,7 @@
       <c r="B36" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="68">
         <v>125</v>
       </c>
       <c r="D36" s="9"/>
@@ -2328,7 +2253,7 @@
       <c r="B37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="68">
         <v>16.2</v>
       </c>
       <c r="D37" s="9"/>
@@ -2340,7 +2265,7 @@
       <c r="B38" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="68">
         <v>10.8</v>
       </c>
       <c r="D38" s="9"/>
@@ -2352,7 +2277,7 @@
       <c r="B39" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="70">
         <v>241.6</v>
       </c>
       <c r="D39" s="18"/>
@@ -2362,12 +2287,12 @@
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="55"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -2379,31 +2304,31 @@
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="10"/>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="72">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
-      <c r="C45" s="51"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="73">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2415,8 +2340,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="52"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="11" t="s">
         <v>33</v>
       </c>
@@ -2451,15 +2376,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -2475,7 +2400,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,12 +2410,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2499,7 +2424,7 @@
       <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="68">
         <v>0.6</v>
       </c>
       <c r="E3" s="2"/>
@@ -2511,7 +2436,7 @@
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="68">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
@@ -2553,7 +2478,7 @@
       <c r="C7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="68">
         <v>1.1499999999999999</v>
       </c>
       <c r="E7" s="2"/>
@@ -2613,7 +2538,7 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="74">
         <f>D4*(D6+D7*D5)/4</f>
         <v>1141.25</v>
       </c>
@@ -2688,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9A8AE-8251-4649-A49B-9AFD42A1CDF4}">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,11 +2628,11 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="Q2" s="56" t="s">
         <v>119</v>
       </c>
@@ -2764,7 +2689,7 @@
       <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="68">
         <v>21000</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2785,12 +2710,12 @@
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -2853,11 +2778,11 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -2875,7 +2800,7 @@
       <c r="B20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="68">
         <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2944,18 +2869,18 @@
       <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <f>ABS(C25-1.15*Dati!E44)/C25</f>
         <v>22.163766046002195</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="35"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
@@ -2963,11 +2888,11 @@
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
@@ -2985,7 +2910,7 @@
       <c r="B32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="68">
         <v>1.5</v>
       </c>
       <c r="D32" s="2"/>
@@ -3023,7 +2948,7 @@
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <f>C3/(C31*C34)</f>
         <v>0.43738119327937203</v>
       </c>
@@ -3043,7 +2968,7 @@
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="38">
         <f>(C37-C36)/C37</f>
         <v>0.99857470374500057</v>
       </c>
@@ -3060,11 +2985,11 @@
       <c r="D40" s="9"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -3094,7 +3019,7 @@
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="34">
         <f>C43/C4</f>
         <v>1.2574472574478164E-3</v>
       </c>
@@ -3104,7 +3029,7 @@
       <c r="B45" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="75">
         <f>1/750</f>
         <v>1.3333333333333333E-3</v>
       </c>
@@ -3114,7 +3039,7 @@
       <c r="B46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="39">
         <f>(C45-C44)/C45</f>
         <v>5.6914556914137666E-2</v>
       </c>
@@ -3122,7 +3047,7 @@
     </row>
     <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="16"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="35"/>
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -3136,7 +3061,7 @@
       <c r="B49" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="68">
         <v>1700</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3147,17 +3072,17 @@
       <c r="B50" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="68">
+      <c r="C50" s="40">
         <f>(Dati!C35*C49/(Dati!C36*Dati!C37))</f>
         <v>251.85185185185185</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="68">
         <v>1</v>
       </c>
       <c r="D51" s="2"/>
@@ -3166,7 +3091,7 @@
       <c r="B52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="68">
+      <c r="C52" s="40">
         <f>C11</f>
         <v>5594026.9401489124</v>
       </c>
@@ -3186,7 +3111,7 @@
       <c r="B54" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="68">
         <v>1</v>
       </c>
       <c r="D54" s="2"/>
@@ -3207,7 +3132,7 @@
       <c r="B56" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <f>(C19-C55)/C19</f>
         <v>0.46458394523842728</v>
       </c>
@@ -3224,34 +3149,34 @@
     <mergeCell ref="B41:D41"/>
   </mergeCells>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="14" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C$25&gt;$C$19*1.15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$C$25&lt;$C$19*1.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C$36&gt;$C$37</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$C$36&lt;$C$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C$44&gt;$C$45</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$C$44&lt;$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
+++ b/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giona\Desktop\git\ImpiantiMeccanici\FogliCalcolo\Carroponte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Carroponte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8D55B-D3DA-41D4-BC57-463A52D62724}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB1653-9690-4347-99B6-92FC8F1816E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
     <sheet name="Reazioni vincolari" sheetId="2" r:id="rId2"/>
     <sheet name="Sollecitazioni" sheetId="3" r:id="rId3"/>
+    <sheet name="Perc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="135">
   <si>
     <t>P</t>
   </si>
@@ -606,14 +607,124 @@
     </r>
   </si>
   <si>
+    <t>spasso ruote testata</t>
+  </si>
+  <si>
+    <t>Verifica svergolamento</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h L / (b t1 ) </t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: nella verifica è indicato lo scarto percentuale tra le quantità. </t>
+  </si>
+  <si>
+    <t>Riepilogo sollecitazioni</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x,v</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x,o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>daN/mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>τ</t>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>d+sc</t>
+  </si>
+  <si>
+    <t>norm %</t>
+  </si>
+  <si>
+    <t>L [mm]</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
     </r>
     <r>
       <rPr>
@@ -624,40 +735,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <t>spasso ruote testata</t>
-  </si>
-  <si>
-    <t>Verifica svergolamento</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h L / (b t1 ) </t>
-  </si>
-  <si>
-    <t>σ</t>
-  </si>
-  <si>
-    <t>ω</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nota: nella verifica è indicato lo scarto percentuale tra le quantità. </t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>F gen</t>
+  </si>
+  <si>
+    <r>
+      <t>N/mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#\ ???/???"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,7 +916,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,6 +926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,10 +1064,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -923,15 +1083,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -947,107 +1107,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1060,13 +1142,236 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1142,14 +1447,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>20343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,13 +1491,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1295,13 +1600,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266091</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>117233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>578091</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161393</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -1360,14 +1665,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595054</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>91130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>413755</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>87337</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79054</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1543,7 +1848,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6863.52">2248 1113 6854,'7'-5'10187,"-3"14"-7654,-3 16-2846,-3 15 483,-2 0 1,-19 78 0,12-68-86,-5 57 1,15-101-460,-4 70 749,4-47-7412,2-54 3685,4-13-407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7210.31">2431 1175 0,'9'-7'3200,"-1"0"-1943,1 0 1,1 0 0,19-10-1,-3 11 5263,-24 59-5858,-2-45-594,0-1 1,-1 1-1,0-1 1,0 1-1,-1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,-1 0-1,1-1 0,-1 1 1,0-1-1,-6 7 1,2-4 16,-1 0 0,0-1 0,0 0 1,-1 0-1,0-1 0,0 0 0,-1-1 0,-12 5 1,-2 0-15,0-2 0,0-1 1,-1-1-1,0-1 1,0-2-1,0 0 0,-41-1 1,63-2-62,-1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-2-8 0,-1-7 20,1 0 0,1 0 0,1 0 0,1-1-1,3-32 1,-1 40-158,1 1 0,0 0 0,1-1 0,0 1 0,1 1 0,0-1-1,1 0 1,0 1 0,1 0 0,1 0 0,-1 1 0,2 0 0,12-15 0,-18 24-8,-1 0 0,1-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,0 1-1,0-1 1,-1 0-1,1 1 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,4 1-1,-5-1-96,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,-1 1 0,1-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1-1 1,-1 1 0,1 0-1,0 1 1,2 16-4429</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8646.54">3773 1159 7399,'-4'1'993,"1"0"0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-4 4-1,-43 32 857,17-10-1834,-30 36 1,45-43 247,1 0 1,1 1 0,1 1 0,1 0 0,1 1 0,-14 38 0,27-63-271,0 1 1,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0 0 0,0 0-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 1 0,0-1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 1-1,0-1 1,0 0 0,0 0 0,0 0 0,-1 0-1,1 1 1,0-1 0,0 0 0,0 0 0,0 1-1,-6-22 19,6 21-10,-56-212-1496,55 196 1355,1 16 400,-6 14-175,-78 111-60,-6 8 337,91-141-170,1-1 0,-2 0 0,0 0 0,0 1 0,-2-16-1,1-6-19,13-132 237,0-2-340,-14 163-24,1 0 1,-1 0-1,1-1 0,-1 2 1,0-1-1,1 0 0,-1 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0 0-1,0-1 0,1 1 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,-1-1 0,-46 3 279,39 0-291,1 0 0,0 0 0,0 1 0,-15 9 0,-26 10-17,48-22 723</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9041.95">3890 1097 8328,'29'-1'3602,"-45"0"904,-26 0-998,20 1-4079,19 0 603,-38 0-78,0 1 0,-48 8-1,86-8-729,-3 0-4096</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9041.94">3890 1097 8328,'29'-1'3602,"-45"0"904,-26 0-998,20 1-4079,19 0 603,-38 0-78,0 1 0,-48 8-1,86-8-729,-3 0-4096</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9474.03">3653 1561 7495,'1'-3'610,"0"0"-1,0 0 1,1 0-1,-1 0 1,1 0-1,0 1 1,0-1-1,0 0 1,0 1 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0 0 0,6-2-1,-8 3-599,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 0 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,11 32 98,-5-12-202,-3-14-208,0 0 0,1-1 1,0 1-1,1-1 1,-1 0-1,14 12 0,-16-16-556,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0-1 1,1 1 0,5 1 0,0-2-4123</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9806.58">3887 1567 6662,'0'0'6022,"-18"0"-5189,-9 10-32,-9 9 256,3-2-385,-3-1-384,3-3-256,3-2-64,3 3-384,9-6-961,3 3-1826</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10142.72">4142 1656 4068,'3'0'8136,"-9"0"-6503,-24 0-800,0 0-641,0 0-192,9 0-256,3 0-353,6 0-544,6 0-1281</inkml:trace>
@@ -1865,24 +2170,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -1899,14 +2204,14 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="42">
         <v>3000</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="45">
         <v>8730</v>
       </c>
     </row>
@@ -1914,14 +2219,14 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="43">
         <v>100</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="71">
+        <v>112</v>
+      </c>
+      <c r="F6" s="45">
         <v>2100</v>
       </c>
     </row>
@@ -1944,7 +2249,7 @@
       <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="45">
         <v>700</v>
       </c>
     </row>
@@ -1952,14 +2257,14 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="42">
         <v>200</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="45">
         <v>800</v>
       </c>
     </row>
@@ -1967,7 +2272,7 @@
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="42">
         <v>800</v>
       </c>
       <c r="D10" s="9"/>
@@ -1986,7 +2291,7 @@
       <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="45">
         <v>720</v>
       </c>
     </row>
@@ -1997,7 +2302,7 @@
       <c r="E12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="45">
         <v>880</v>
       </c>
     </row>
@@ -2005,7 +2310,7 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="42">
         <v>600</v>
       </c>
       <c r="D13" s="9"/>
@@ -2017,14 +2322,14 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="42">
         <v>250</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="45">
         <v>400</v>
       </c>
     </row>
@@ -2032,14 +2337,14 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="42">
         <v>120</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="45">
         <v>220</v>
       </c>
     </row>
@@ -2064,7 +2369,7 @@
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="42">
         <v>2.5</v>
       </c>
       <c r="D18" s="9"/>
@@ -2075,7 +2380,7 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9"/>
@@ -2086,7 +2391,7 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="42" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="9"/>
@@ -2097,7 +2402,7 @@
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="42">
         <v>0.1</v>
       </c>
       <c r="D21" s="9"/>
@@ -2108,7 +2413,7 @@
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="18"/>
@@ -2117,29 +2422,29 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="42">
         <v>9800</v>
       </c>
       <c r="D27" s="9"/>
@@ -2151,7 +2456,7 @@
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="42">
         <v>653</v>
       </c>
       <c r="D28" s="9"/>
@@ -2163,7 +2468,7 @@
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="42">
         <v>11.9</v>
       </c>
       <c r="D29" s="9"/>
@@ -2175,7 +2480,7 @@
       <c r="B30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="42">
         <v>451</v>
       </c>
       <c r="D30" s="9"/>
@@ -2187,7 +2492,7 @@
       <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="42">
         <v>72.2</v>
       </c>
       <c r="D31" s="9"/>
@@ -2199,7 +2504,7 @@
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="42">
         <v>2.56</v>
       </c>
       <c r="D32" s="9"/>
@@ -2217,7 +2522,7 @@
       <c r="B34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="42">
         <v>69</v>
       </c>
       <c r="D34" s="9"/>
@@ -2229,7 +2534,7 @@
       <c r="B35" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="42">
         <v>300</v>
       </c>
       <c r="D35" s="9"/>
@@ -2241,7 +2546,7 @@
       <c r="B36" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="42">
         <v>125</v>
       </c>
       <c r="D36" s="9"/>
@@ -2253,7 +2558,7 @@
       <c r="B37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="42">
         <v>16.2</v>
       </c>
       <c r="D37" s="9"/>
@@ -2265,7 +2570,7 @@
       <c r="B38" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="42">
         <v>10.8</v>
       </c>
       <c r="D38" s="9"/>
@@ -2277,7 +2582,7 @@
       <c r="B39" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="44">
         <v>241.6</v>
       </c>
       <c r="D39" s="18"/>
@@ -2287,12 +2592,12 @@
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -2304,31 +2609,31 @@
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="10"/>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="72">
+      <c r="E44" s="46">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
-      <c r="C45" s="42"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="47">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="42" t="s">
+      <c r="C46" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2340,8 +2645,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="43"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="11" t="s">
         <v>33</v>
       </c>
@@ -2376,17 +2681,17 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1" xr:uid="{843FD520-FDF1-471C-AF32-C4FF5150CE89}"/>
   </hyperlinks>
@@ -2400,7 +2705,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,12 +2715,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2424,7 +2729,7 @@
       <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="42">
         <v>0.6</v>
       </c>
       <c r="E3" s="2"/>
@@ -2436,7 +2741,7 @@
       <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="42">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
@@ -2478,7 +2783,7 @@
       <c r="C7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="42">
         <v>1.1499999999999999</v>
       </c>
       <c r="E7" s="2"/>
@@ -2538,7 +2843,7 @@
       <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="48">
         <f>D4*(D6+D7*D5)/4</f>
         <v>1141.25</v>
       </c>
@@ -2611,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9A8AE-8251-4649-A49B-9AFD42A1CDF4}">
-  <dimension ref="B1:S56"/>
+  <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,16 +2933,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="Q2" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="58"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="Q2" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="65"/>
+      <c r="S2" s="66"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2648,9 +2953,9 @@
         <v>1141.25</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2661,9 +2966,9 @@
         <v>8730</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="64"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -2689,7 +2994,7 @@
       <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="42">
         <v>21000</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2710,12 +3015,12 @@
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -2750,58 +3055,57 @@
       <c r="E13" s="2"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="24">
         <f>C11/C12</f>
         <v>8.5666568761851636</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="24">
-        <f>C14/3^0.5</f>
-        <v>4.945961653520663</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-    </row>
-    <row r="19" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C18" s="22">
         <f>Dati!E44</f>
         <v>16</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="42">
+        <v>35</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="68">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="C20" s="9">
+        <f>(Dati!C35-Dati!C39)/2</f>
+        <v>29.200000000000003</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -2809,11 +3113,11 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9">
-        <f>(Dati!C35-Dati!C39)/2</f>
-        <v>29.200000000000003</v>
+        <f>Dati!C38</f>
+        <v>10.8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -2821,367 +3125,656 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="9">
+        <f>TRUNC(Dati!F15/100)*100/4</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="22">
+        <f>C3/(C22+2*(C19+C20)*C21)</f>
+        <v>0.79434406147335579</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="36">
+        <f>ABS(C24-1.15*Dati!E44)/C24</f>
+        <v>22.163766046002195</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="9">
+        <f>IF(C32&lt;C5,C32,C5)</f>
+        <v>241.6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="9">
+        <f>Dati!C39</f>
+        <v>241.6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="9">
         <f>Dati!C38</f>
         <v>10.8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="9">
-        <f>TRUNC(Dati!F15/100)*100/4</f>
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B25" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="22">
-        <f>C3/(C23+2*(C20+C21)*C22)</f>
-        <v>0.79434406147335579</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="36">
-        <f>ABS(C25-1.15*Dati!E44)/C25</f>
-        <v>22.163766046002195</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="9">
-        <f>IF(C33&lt;C5,C33,C5)</f>
-        <v>241.6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="68">
-        <v>1.5</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="9">
-        <f>Dati!C39</f>
-        <v>241.6</v>
-      </c>
       <c r="D33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="9">
-        <f>Dati!C38</f>
-        <v>10.8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="34">
+        <f>C3/(C30*C33)</f>
+        <v>0.43738119327937203</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="34">
-        <f>C3/(C31*C34)</f>
-        <v>0.43738119327937203</v>
-      </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="22">
-        <f>230000/C32*(1+2*(C33/C4)^2)*(C34/C33)^2</f>
+      <c r="C36" s="22">
+        <f>230000/C31*(1+2*(C32/C4)^2)*(C33/C32)^2</f>
         <v>306.87037291032152</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+      <c r="D36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="38">
-        <f>(C37-C36)/C37</f>
+      <c r="C37" s="38">
+        <f>(C36-C35)/C36</f>
         <v>0.99857470374500057</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
-      <c r="C39" s="31"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9">
+        <f>Dati!C5*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="9">
-        <f>Dati!C5*1.1</f>
-        <v>3300.0000000000005</v>
+        <v>93</v>
+      </c>
+      <c r="C42" s="22">
+        <f>C41/4*(C4-C5)*(3*C4^2-(C4-C5)^2)/(48*C7*C8)</f>
+        <v>10.977514557519438</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="22">
-        <f>C42/4*(C4-C5)*(3*C4^2-(C4-C5)^2)/(48*C7*C8)</f>
-        <v>10.977514557519438</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C43" s="34">
+        <f>C42/C4</f>
+        <v>1.2574472574478164E-3</v>
+      </c>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="34">
-        <f>C43/C4</f>
-        <v>1.2574472574478164E-3</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="75">
+      <c r="C44" s="49">
         <f>1/750</f>
         <v>1.3333333333333333E-3</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="39">
+        <f>(C44-C43)/C44</f>
+        <v>5.6914556914137666E-2</v>
+      </c>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="39">
-        <f>(C45-C44)/C45</f>
-        <v>5.6914556914137666E-2</v>
-      </c>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="9"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="42">
+        <v>1700</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="68">
-        <v>1700</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="C49" s="40">
+        <f>(Dati!C35*C48/(Dati!C36*Dati!C37))</f>
+        <v>251.85185185185185</v>
+      </c>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="40">
-        <f>(Dati!C35*C49/(Dati!C36*Dati!C37))</f>
-        <v>251.85185185185185</v>
+      <c r="B50" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="42">
+        <v>1</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="68">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
+    <row r="51" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C51" s="40">
         <f>C11</f>
         <v>5594026.9401489124</v>
       </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
+      <c r="D51" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C52" s="9">
         <f>C12</f>
         <v>653000</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="42">
+        <v>1</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="68">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="22">
-        <f>C51*C52/(C54*C53)</f>
+    <row r="54" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="22">
+        <f>C50*C51/(C53*C52)</f>
         <v>8.5666568761851636</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="29" t="s">
+    <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="39">
-        <f>(C19-C55)/C19</f>
+      <c r="C55" s="39">
+        <f>(C18-C54)/C18</f>
         <v>0.46458394523842728</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+    </row>
+    <row r="59" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B59" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="22">
+        <f>C11/C12</f>
+        <v>8.5666568761851636</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B60" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="22">
+        <f>C11/(60*Dati!C31*1000)</f>
+        <v>1.291326625149795</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B61" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="22">
+        <f>C24</f>
+        <v>0.79434406147335579</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="B62" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="22">
+        <f>((C59+C60)^2+C61^2-(C59+C60)*C61)^0.5</f>
+        <v>9.4857888732673405</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="24">
+        <f>Dati!E44</f>
+        <v>16</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B58:D58"/>
     <mergeCell ref="Q2:S4"/>
-    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
-  <conditionalFormatting sqref="C27">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C$24&gt;$C$18*1.15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$C$24&lt;$C$18*1.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C$25&gt;$C$19*1.15</formula>
+      <formula>$C$35&gt;$C$36</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$C$25&lt;$C$19*1.15</formula>
+      <formula>$C$35&lt;$C$36</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C$36&gt;$C$37</formula>
+      <formula>$C$43&gt;$C$44</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$C$36&lt;$C$37</formula>
+      <formula>$C$43&lt;$C$44</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C$44&gt;$C$45</formula>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C$44&lt;$C$45</formula>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$C$62</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$C$62</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CFB0AE-4800-41D2-8FFC-CDA71C178E7B}">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f>Dati!F5</f>
+        <v>8730</v>
+      </c>
+      <c r="D4" s="79">
+        <v>1</v>
+      </c>
+      <c r="E4" s="80">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="78">
+        <f>C4/E4</f>
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <f>Dati!F9</f>
+        <v>800</v>
+      </c>
+      <c r="D5" s="79">
+        <f>C5/C4</f>
+        <v>9.1638029782359673E-2</v>
+      </c>
+      <c r="E5" s="81">
+        <f>D5*E4</f>
+        <v>18.327605956471935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="9">
+        <f>'Reazioni vincolari'!D16</f>
+        <v>4165</v>
+      </c>
+      <c r="D6" s="79">
+        <f>C6/C4</f>
+        <v>0.47709049255441011</v>
+      </c>
+      <c r="E6" s="84">
+        <f>D6*E4</f>
+        <v>95.418098510882018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="18">
+        <f>C6+C5</f>
+        <v>4965</v>
+      </c>
+      <c r="D7" s="82">
+        <f>C7/C4</f>
+        <v>0.56872852233676974</v>
+      </c>
+      <c r="E7" s="85">
+        <f>D7*E4</f>
+        <v>113.74570446735395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="9">
+        <f>'Reazioni vincolari'!C20</f>
+        <v>1573.959049255441</v>
+      </c>
+      <c r="D10" s="80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9">
+        <f>'Reazioni vincolari'!C19</f>
+        <v>1678.540950744559</v>
+      </c>
+      <c r="D11" s="81">
+        <f>$D$10/$C$10*C11</f>
+        <v>63.986707336709571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="9">
+        <f>'Reazioni vincolari'!C20-0.5*'Reazioni vincolari'!D8</f>
+        <v>1088.959049255441</v>
+      </c>
+      <c r="D12" s="81">
+        <f t="shared" ref="D12:D16" si="0">$D$10/$C$10*C12</f>
+        <v>41.511590143488348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="9">
+        <f>'Reazioni vincolari'!C19-0.5*'Reazioni vincolari'!D8</f>
+        <v>1193.540950744559</v>
+      </c>
+      <c r="D13" s="81">
+        <f t="shared" si="0"/>
+        <v>45.49829748019792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="9">
+        <f>Dati!C16</f>
+        <v>970</v>
+      </c>
+      <c r="D14" s="81">
+        <f t="shared" si="0"/>
+        <v>36.976819713023303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="9">
+        <f>'Reazioni vincolari'!D15</f>
+        <v>1141.25</v>
+      </c>
+      <c r="D15" s="81">
+        <f t="shared" si="0"/>
+        <v>43.504943811843134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="18">
+        <v>100</v>
+      </c>
+      <c r="D16" s="83">
+        <f t="shared" si="0"/>
+        <v>3.8120432693838455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
+++ b/FogliCalcolo/Carroponte/VerificaCarroponte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Uni\Impianti meccanici\MaterialeEsame\FogliCalcolo\Carroponte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB1653-9690-4347-99B6-92FC8F1816E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58986E9C-E5F8-4710-88E7-368CCAC323FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
+    <workbookView xWindow="7200" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E9B711B3-B55F-4B67-A8D5-AE95E1EE28CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -804,14 +804,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,8 +1057,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1083,15 +1076,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1107,29 +1100,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1142,88 +1135,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1232,13 +1147,91 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="2" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1264,125 +1257,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2170,24 +2044,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -2422,22 +2296,22 @@
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -2592,12 +2466,12 @@
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -2609,7 +2483,7 @@
     </row>
     <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B44" s="10"/>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="60" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -2621,7 +2495,7 @@
     </row>
     <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
-      <c r="C45" s="58"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="11" t="s">
         <v>33</v>
       </c>
@@ -2630,10 +2504,10 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="60" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2645,8 +2519,8 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B47" s="59"/>
-      <c r="C47" s="58"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="11" t="s">
         <v>33</v>
       </c>
@@ -2691,7 +2565,7 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C44:C45"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1" xr:uid="{843FD520-FDF1-471C-AF32-C4FF5150CE89}"/>
   </hyperlinks>
@@ -2715,12 +2589,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2918,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9A8AE-8251-4649-A49B-9AFD42A1CDF4}">
   <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,16 +2807,16 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="Q2" s="64" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="Q2" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="66"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="76"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2953,9 +2827,9 @@
         <v>1141.25</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="69"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="79"/>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -2966,9 +2840,9 @@
         <v>8730</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="82"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -3015,12 +2889,12 @@
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -3056,7 +2930,7 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="51" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="24">
@@ -3070,11 +2944,11 @@
     </row>
     <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
     </row>
     <row r="18" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -3104,8 +2978,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="9">
-        <f>(Dati!C35-Dati!C39)/2</f>
-        <v>29.200000000000003</v>
+        <v>21.5</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>72</v>
@@ -3116,7 +2989,6 @@
         <v>80</v>
       </c>
       <c r="C21" s="9">
-        <f>Dati!C38</f>
         <v>10.8</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3146,7 +3018,7 @@
       </c>
       <c r="C24" s="22">
         <f>C3/(C22+2*(C19+C20)*C21)</f>
-        <v>0.79434406147335579</v>
+        <v>0.89833910579345078</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -3163,7 +3035,7 @@
       </c>
       <c r="C26" s="36">
         <f>ABS(C24-1.15*Dati!E44)/C24</f>
-        <v>22.163766046002195</v>
+        <v>19.482243154435928</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>86</v>
@@ -3180,11 +3052,11 @@
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
@@ -3281,11 +3153,11 @@
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
@@ -3347,11 +3219,11 @@
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="85"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
@@ -3440,11 +3312,11 @@
     </row>
     <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
     </row>
     <row r="59" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B59" s="23" t="s">
@@ -3476,7 +3348,7 @@
       </c>
       <c r="C61" s="22">
         <f>C24</f>
-        <v>0.79434406147335579</v>
+        <v>0.89833910579345078</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>123</v>
@@ -3488,14 +3360,14 @@
       </c>
       <c r="C62" s="22">
         <f>((C59+C60)^2+C61^2-(C59+C60)*C61)^0.5</f>
-        <v>9.4857888732673405</v>
+        <v>9.440923671869939</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="24">
@@ -3517,7 +3389,7 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B40:D40"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C$24&gt;$C$18*1.15</formula>
@@ -3603,19 +3475,19 @@
         <f>Dati!F5</f>
         <v>8730</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="53">
         <v>1</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="54">
         <v>200</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="78">
+      <c r="I4" s="52">
         <f>C4/E4</f>
         <v>43.65</v>
       </c>
@@ -3628,11 +3500,11 @@
         <f>Dati!F9</f>
         <v>800</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="53">
         <f>C5/C4</f>
         <v>9.1638029782359673E-2</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="55">
         <f>D5*E4</f>
         <v>18.327605956471935</v>
       </c>
@@ -3645,11 +3517,11 @@
         <f>'Reazioni vincolari'!D16</f>
         <v>4165</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="53">
         <f>C6/C4</f>
         <v>0.47709049255441011</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="58">
         <f>D6*E4</f>
         <v>95.418098510882018</v>
       </c>
@@ -3662,11 +3534,11 @@
         <f>C6+C5</f>
         <v>4965</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="56">
         <f>C7/C4</f>
         <v>0.56872852233676974</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="59">
         <f>D7*E4</f>
         <v>113.74570446735395</v>
       </c>
@@ -3690,7 +3562,7 @@
         <f>'Reazioni vincolari'!C20</f>
         <v>1573.959049255441</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="54">
         <v>60</v>
       </c>
     </row>
@@ -3703,7 +3575,7 @@
         <f>'Reazioni vincolari'!C19</f>
         <v>1678.540950744559</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="55">
         <f>$D$10/$C$10*C11</f>
         <v>63.986707336709571</v>
       </c>
@@ -3717,7 +3589,7 @@
         <f>'Reazioni vincolari'!C20-0.5*'Reazioni vincolari'!D8</f>
         <v>1088.959049255441</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="55">
         <f t="shared" ref="D12:D16" si="0">$D$10/$C$10*C12</f>
         <v>41.511590143488348</v>
       </c>
@@ -3731,7 +3603,7 @@
         <f>'Reazioni vincolari'!C19-0.5*'Reazioni vincolari'!D8</f>
         <v>1193.540950744559</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="55">
         <f t="shared" si="0"/>
         <v>45.49829748019792</v>
       </c>
@@ -3744,7 +3616,7 @@
         <f>Dati!C16</f>
         <v>970</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="55">
         <f t="shared" si="0"/>
         <v>36.976819713023303</v>
       </c>
@@ -3757,7 +3629,7 @@
         <f>'Reazioni vincolari'!D15</f>
         <v>1141.25</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="55">
         <f t="shared" si="0"/>
         <v>43.504943811843134</v>
       </c>
@@ -3769,7 +3641,7 @@
       <c r="C16" s="18">
         <v>100</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="57">
         <f t="shared" si="0"/>
         <v>3.8120432693838455</v>
       </c>
